--- a/3月作業報告書_呉思潼 2024.xlsx
+++ b/3月作業報告書_呉思潼 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gos103\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EA8F1-A0FC-4C77-92DE-B2D6AF59B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F3479C-DB96-43EF-A4F0-AF692EBA17FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>会社名</t>
   </si>
@@ -107,6 +107,16 @@
     <t>祝日</t>
     <phoneticPr fontId="13"/>
   </si>
+  <si>
+    <t>午前出勤</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
@@ -154,6 +164,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -475,38 +487,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,166 +592,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1082,8 +942,8 @@
   <sheetPr codeName="2月"/>
   <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1"/>
@@ -1166,9 +1026,9 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1198,9 +1058,9 @@
       <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="33"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1218,21 +1078,21 @@
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="39">
+      <c r="B5" s="40">
         <v>45352</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1278,14 +1138,14 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1310,16 +1170,16 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1342,16 +1202,16 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1402,31 +1262,31 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="30" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="1"/>
@@ -1446,21 +1306,21 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="1"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1486,23 +1346,23 @@
         <f t="shared" ref="C13:C41" si="0">IF(B13&lt;&gt;"",WEEKDAY(B13),"")</f>
         <v>6</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" ref="G13:G41" si="1">IF(D13="","",IF(E13="","",E13-D13-F13))</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1529,17 +1389,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="8"/>
       <c r="M14" s="3"/>
       <c r="N14" s="1"/>
@@ -1566,17 +1426,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1603,23 +1463,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="8"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1646,23 +1506,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="8"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1689,23 +1549,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="8"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1732,23 +1592,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E19" s="43">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F19" s="43">
+      <c r="E19" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="F19" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="8"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1775,23 +1635,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E20" s="43">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F20" s="43">
+      <c r="E20" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="F20" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="1"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1818,17 +1678,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="8"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1855,17 +1715,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
       <c r="L22" s="8"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1892,23 +1752,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="8"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1935,23 +1795,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="8"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1978,23 +1838,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="8"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2021,23 +1881,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E26" s="43">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F26" s="43">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="7">
         <f t="shared" si="1"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="8"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2064,23 +1924,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E27" s="43">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F27" s="43">
+      <c r="E27" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F27" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="1"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+        <v>0.375</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
       <c r="L27" s="8"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2107,17 +1967,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
       <c r="L28" s="8"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2144,17 +2004,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
       <c r="L29" s="8"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2181,23 +2041,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
       <c r="L30" s="8"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2224,23 +2084,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
       <c r="L31" s="8"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2267,19 +2127,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
       <c r="L32" s="8"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2306,23 +2166,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
       <c r="L33" s="8"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2349,23 +2209,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
       <c r="L34" s="8"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2392,17 +2252,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
       <c r="L35" s="8"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2429,17 +2289,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
       <c r="L36" s="8"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2466,23 +2326,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
       <c r="L37" s="8"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2509,23 +2369,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
       <c r="L38" s="8"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2552,23 +2412,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
       <c r="L39" s="8"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2595,23 +2455,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
       <c r="L40" s="8"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2638,23 +2498,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
       <c r="L41" s="8"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -2673,21 +2533,21 @@
     </row>
     <row r="42" spans="1:26" ht="18" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="9">
         <f>SUM(G13:G41)</f>
-        <v>6.6666666666666625</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+        <v>6.4999999999999964</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="8"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2740,12 +2600,12 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2770,12 +2630,12 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="17"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2800,10 +2660,10 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="20"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2828,10 +2688,10 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -7135,8 +6995,8 @@
     <mergeCell ref="J46:K47"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
-  <conditionalFormatting sqref="B13:L14 B15:L41">
-    <cfRule type="expression" dxfId="19" priority="1">
+  <conditionalFormatting sqref="B13:L41">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(WEEKDAY($C13)=1,WEEKDAY($C13)=7)</formula>
     </cfRule>
   </conditionalFormatting>
